--- a/images/calendar.xlsx
+++ b/images/calendar.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22149" windowHeight="12549" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22149" windowHeight="12549" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="10" r:id="rId2"/>
-    <sheet name="fetch_date&gt;" sheetId="16" r:id="rId3"/>
-    <sheet name="fdom" sheetId="12" r:id="rId4"/>
-    <sheet name="fwdom" sheetId="13" r:id="rId5"/>
-    <sheet name="ldom" sheetId="14" r:id="rId6"/>
-    <sheet name="lwdom" sheetId="15" r:id="rId7"/>
-    <sheet name="fetch_dates&gt;" sheetId="17" r:id="rId8"/>
-    <sheet name="fdom2" sheetId="19" r:id="rId9"/>
-    <sheet name="fwdom2" sheetId="20" r:id="rId10"/>
-    <sheet name="ldom2" sheetId="21" r:id="rId11"/>
-    <sheet name="lwdom2" sheetId="22" r:id="rId12"/>
+    <sheet name="2018" sheetId="2" r:id="rId1"/>
+    <sheet name="2020" sheetId="10" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="23" r:id="rId3"/>
+    <sheet name="fetch_date&gt;" sheetId="16" r:id="rId4"/>
+    <sheet name="fdom" sheetId="12" r:id="rId5"/>
+    <sheet name="fwdom" sheetId="13" r:id="rId6"/>
+    <sheet name="ldom" sheetId="14" r:id="rId7"/>
+    <sheet name="lwdom" sheetId="15" r:id="rId8"/>
+    <sheet name="fetch_dates&gt;" sheetId="17" r:id="rId9"/>
+    <sheet name="fdom2" sheetId="19" r:id="rId10"/>
+    <sheet name="fwdom2" sheetId="20" r:id="rId11"/>
+    <sheet name="ldom2" sheetId="21" r:id="rId12"/>
+    <sheet name="lwdom2" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="39">
   <si>
     <t>January 2018</t>
   </si>
@@ -130,6 +131,172 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>irst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ast</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">orking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onth</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +307,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +467,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -369,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -839,6 +1015,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -848,7 +1109,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1055,30 +1316,6 @@
     <xf numFmtId="166" fontId="14" fillId="9" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="14" fillId="10" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1101,23 +1338,11 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1165,6 +1390,60 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="8" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1509,7 +1788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1539,29 +1818,29 @@
     <row r="2" spans="2:24" ht="17.600000000000001">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="4"/>
       <c r="P2" s="5"/>
       <c r="R2" s="3"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="74" t="s">
+      <c r="T2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
     </row>
@@ -1952,29 +2231,29 @@
     <row r="11" spans="2:24" ht="17.600000000000001">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
       <c r="R11" s="3"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="74" t="s">
+      <c r="T11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
       <c r="W11" s="4"/>
       <c r="X11" s="5"/>
     </row>
@@ -2367,29 +2646,29 @@
     <row r="20" spans="2:24" ht="17.600000000000001">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
       <c r="R20" s="3"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="74" t="s">
+      <c r="T20" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
       <c r="W20" s="4"/>
       <c r="X20" s="5"/>
     </row>
@@ -2793,29 +3072,29 @@
     <row r="30" spans="2:24" ht="17.600000000000001">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="74" t="s">
+      <c r="L30" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
       <c r="O30" s="4"/>
       <c r="P30" s="5"/>
       <c r="R30" s="3"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="74" t="s">
+      <c r="T30" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
       <c r="W30" s="4"/>
       <c r="X30" s="5"/>
     </row>
@@ -3209,24 +3488,1063 @@
     <row r="38" spans="2:24"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="T30:V30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
+    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="56" customWidth="1"/>
+    <col min="10" max="16" width="6.69140625" style="56" customWidth="1"/>
+    <col min="17" max="17" width="2.69140625" style="56" customWidth="1"/>
+    <col min="18" max="24" width="6.69140625" style="56" customWidth="1"/>
+    <col min="25" max="25" width="1.69140625" style="56" customWidth="1"/>
+    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="10" customHeight="1"/>
+    <row r="2" spans="2:24" ht="14.6">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="66"/>
+    </row>
+    <row r="3" spans="2:24" ht="14.6">
+      <c r="B3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68">
+        <f>D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="68">
+        <f>E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="73">
+        <f>F4+1</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="73">
+        <f>G4+1</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="75">
+        <v>1</v>
+      </c>
+      <c r="P4" s="73">
+        <v>2</v>
+      </c>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B5" s="68">
+        <f>H4+1</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="68">
+        <f>B5+1</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="68">
+        <f t="shared" ref="D5:H5" si="0">C5+1</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="73">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="73">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="68">
+        <f>P4+1</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="68">
+        <f>J5+1</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="68">
+        <f t="shared" ref="L5:P5" si="1">K5+1</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="68">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N5" s="68">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O5" s="73">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P5" s="73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R5" s="68">
+        <f>X4+1</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="68">
+        <f>R5+1</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="68">
+        <f t="shared" ref="T5:X5" si="2">S5+1</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="68">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V5" s="68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W5" s="73">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X5" s="73">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B6" s="68">
+        <f t="shared" ref="B6:B8" si="3">H5+1</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="74">
+        <f t="shared" ref="C6:H8" si="4">B6+1</f>
+        <v>14</v>
+      </c>
+      <c r="D6" s="68">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="68">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H6" s="73">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="68">
+        <f t="shared" ref="J6:J8" si="5">P5+1</f>
+        <v>10</v>
+      </c>
+      <c r="K6" s="68">
+        <f t="shared" ref="K6:P8" si="6">J6+1</f>
+        <v>11</v>
+      </c>
+      <c r="L6" s="68">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M6" s="68">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="68">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O6" s="73">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="P6" s="73">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R6" s="68">
+        <f t="shared" ref="R6:R9" si="7">X5+1</f>
+        <v>9</v>
+      </c>
+      <c r="S6" s="68">
+        <f t="shared" ref="S6:X9" si="8">R6+1</f>
+        <v>10</v>
+      </c>
+      <c r="T6" s="68">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="U6" s="68">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V6" s="68">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="W6" s="73">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X6" s="73">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B7" s="68">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="68">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="68">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="73">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="68">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="68">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L7" s="68">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M7" s="68">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="N7" s="68">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="O7" s="73">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P7" s="73">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="R7" s="68">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="S7" s="68">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="T7" s="68">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="U7" s="68">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V7" s="68">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="W7" s="73">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="X7" s="73">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B8" s="68">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="68">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D8" s="68">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="68">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="68">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="J8" s="68">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K8" s="68">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="L8" s="68">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="M8" s="68">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="N8" s="68">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="O8" s="73">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P8" s="71"/>
+      <c r="R8" s="68">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="S8" s="68">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="T8" s="68">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="U8" s="68">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="V8" s="68">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="W8" s="73">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="X8" s="73">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="14.6">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="R9" s="69">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="S9" s="69">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="2:24" ht="14.6"/>
+    <row r="11" spans="2:24" ht="14.6">
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+    </row>
+    <row r="12" spans="2:24" ht="14.6">
+      <c r="B12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="75">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68">
+        <f>D13+1</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" ref="F13:H13" si="9">E13+1</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="73">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="73">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="75">
+        <v>1</v>
+      </c>
+      <c r="O13" s="73">
+        <f>N13+1</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="73">
+        <f>O13+1</f>
+        <v>3</v>
+      </c>
+      <c r="R13" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="68">
+        <f>R13+1</f>
+        <v>2</v>
+      </c>
+      <c r="T13" s="68">
+        <f>S13+1</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="68">
+        <f t="shared" ref="U13:X13" si="10">T13+1</f>
+        <v>4</v>
+      </c>
+      <c r="V13" s="68">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W13" s="73">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X13" s="73">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B14" s="68">
+        <f>H13+1</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="68">
+        <f>B14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="68">
+        <f t="shared" ref="D14:H14" si="11">C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="68">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="68">
+        <f>P13+1</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="68">
+        <f>J14+1</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" ref="L14:P14" si="12">K14+1</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="68">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="68">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="P14" s="73">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="68">
+        <f>X13+1</f>
+        <v>8</v>
+      </c>
+      <c r="S14" s="68">
+        <f>R14+1</f>
+        <v>9</v>
+      </c>
+      <c r="T14" s="68">
+        <f t="shared" ref="T14:X14" si="13">S14+1</f>
+        <v>10</v>
+      </c>
+      <c r="U14" s="68">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="V14" s="68">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="W14" s="73">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="X14" s="73">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B15" s="68">
+        <f t="shared" ref="B15:B17" si="14">H14+1</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="68">
+        <f t="shared" ref="C15:H17" si="15">B15+1</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="68">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="68">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="68">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="73">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="73">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="68">
+        <f t="shared" ref="J15:J17" si="16">P14+1</f>
+        <v>11</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:P17" si="17">J15+1</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="68">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="68">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="68">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="P15" s="73">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="R15" s="68">
+        <f t="shared" ref="R15:R17" si="18">X14+1</f>
+        <v>15</v>
+      </c>
+      <c r="S15" s="68">
+        <f t="shared" ref="S15:X17" si="19">R15+1</f>
+        <v>16</v>
+      </c>
+      <c r="T15" s="68">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="U15" s="68">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="V15" s="68">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="W15" s="73">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="X15" s="73">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B16" s="68">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="68">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="68">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="F16" s="68">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="73">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="68">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="68">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="68">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N16" s="68">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="P16" s="73">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="R16" s="68">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="S16" s="74">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="T16" s="68">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="U16" s="68">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="V16" s="68">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="W16" s="73">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="X16" s="73">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B17" s="68">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="68">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="68">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="J17" s="68">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="L17" s="68">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="M17" s="68">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="N17" s="68">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="O17" s="73">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="P17" s="73">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="R17" s="68">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="S17" s="68">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+    </row>
+    <row r="18" spans="2:24" ht="10" customHeight="1">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y18"/>
   <sheetViews>
@@ -3250,29 +4568,29 @@
     <row r="2" spans="2:24" ht="14.6">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
       <c r="J2" s="62"/>
       <c r="K2" s="65"/>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="65"/>
       <c r="P2" s="66"/>
       <c r="R2" s="62"/>
       <c r="S2" s="65"/>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
       <c r="W2" s="65"/>
       <c r="X2" s="66"/>
     </row>
@@ -3413,7 +4731,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="75">
         <f>P4+1</f>
         <v>3</v>
       </c>
@@ -3441,7 +4759,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="75">
         <f>X4+1</f>
         <v>2</v>
       </c>
@@ -3475,7 +4793,7 @@
         <f t="shared" ref="B6:B8" si="3">H5+1</f>
         <v>13</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="74">
         <f t="shared" ref="C6:H8" si="4">B6+1</f>
         <v>14</v>
       </c>
@@ -3752,29 +5070,29 @@
     <row r="11" spans="2:24" ht="14.6">
       <c r="B11" s="62"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="65"/>
       <c r="H11" s="66"/>
       <c r="J11" s="62"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="65"/>
       <c r="P11" s="66"/>
       <c r="R11" s="62"/>
       <c r="S11" s="65"/>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
       <c r="W11" s="65"/>
       <c r="X11" s="66"/>
     </row>
@@ -3846,7 +5164,7 @@
     <row r="13" spans="2:24" s="57" customFormat="1" ht="14.6">
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
-      <c r="D13" s="83">
+      <c r="D13" s="75">
         <v>1</v>
       </c>
       <c r="E13" s="68">
@@ -3869,7 +5187,7 @@
       <c r="K13" s="70"/>
       <c r="L13" s="71"/>
       <c r="M13" s="71"/>
-      <c r="N13" s="83">
+      <c r="N13" s="75">
         <v>1</v>
       </c>
       <c r="O13" s="73">
@@ -3880,7 +5198,7 @@
         <f>O13+1</f>
         <v>3</v>
       </c>
-      <c r="R13" s="83" t="s">
+      <c r="R13" s="75" t="s">
         <v>32</v>
       </c>
       <c r="S13" s="68">
@@ -4141,7 +5459,7 @@
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
-      <c r="S16" s="82">
+      <c r="S16" s="74">
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
@@ -4211,1045 +5529,6 @@
         <v>30</v>
       </c>
       <c r="P17" s="73">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="R17" s="68">
-        <f t="shared" si="18"/>
-        <v>29</v>
-      </c>
-      <c r="S17" s="68">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-    </row>
-    <row r="18" spans="2:24" ht="10" customHeight="1">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
-    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="2.69140625" style="56" customWidth="1"/>
-    <col min="10" max="16" width="6.69140625" style="56" customWidth="1"/>
-    <col min="17" max="17" width="2.69140625" style="56" customWidth="1"/>
-    <col min="18" max="24" width="6.69140625" style="56" customWidth="1"/>
-    <col min="25" max="25" width="1.69140625" style="56" customWidth="1"/>
-    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="10" customHeight="1"/>
-    <row r="2" spans="2:24" ht="14.6">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="66"/>
-    </row>
-    <row r="3" spans="2:24" ht="14.6">
-      <c r="B3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="68">
-        <v>1</v>
-      </c>
-      <c r="E4" s="68">
-        <f>D4+1</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="68">
-        <f>E4+1</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="73">
-        <f>F4+1</f>
-        <v>4</v>
-      </c>
-      <c r="H4" s="73">
-        <f>G4+1</f>
-        <v>5</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="73">
-        <v>1</v>
-      </c>
-      <c r="P4" s="73">
-        <v>2</v>
-      </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B5" s="68">
-        <f>H4+1</f>
-        <v>6</v>
-      </c>
-      <c r="C5" s="68">
-        <f>B5+1</f>
-        <v>7</v>
-      </c>
-      <c r="D5" s="68">
-        <f t="shared" ref="D5:H5" si="0">C5+1</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F5" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="73">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H5" s="73">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J5" s="68">
-        <f>P4+1</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="68">
-        <f>J5+1</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="68">
-        <f t="shared" ref="L5:P5" si="1">K5+1</f>
-        <v>5</v>
-      </c>
-      <c r="M5" s="68">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N5" s="68">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O5" s="73">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P5" s="73">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R5" s="68">
-        <f>X4+1</f>
-        <v>2</v>
-      </c>
-      <c r="S5" s="68">
-        <f>R5+1</f>
-        <v>3</v>
-      </c>
-      <c r="T5" s="68">
-        <f t="shared" ref="T5:X5" si="2">S5+1</f>
-        <v>4</v>
-      </c>
-      <c r="U5" s="68">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="V5" s="68">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W5" s="73">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="X5" s="73">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B6" s="68">
-        <f t="shared" ref="B6:B8" si="3">H5+1</f>
-        <v>13</v>
-      </c>
-      <c r="C6" s="82">
-        <f t="shared" ref="C6:H8" si="4">B6+1</f>
-        <v>14</v>
-      </c>
-      <c r="D6" s="68">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="E6" s="68">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F6" s="68">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="G6" s="73">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="H6" s="73">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J6" s="68">
-        <f t="shared" ref="J6:J8" si="5">P5+1</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="68">
-        <f t="shared" ref="K6:P8" si="6">J6+1</f>
-        <v>11</v>
-      </c>
-      <c r="L6" s="68">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="M6" s="68">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="N6" s="68">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="O6" s="73">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P6" s="73">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="R6" s="68">
-        <f t="shared" ref="R6:R9" si="7">X5+1</f>
-        <v>9</v>
-      </c>
-      <c r="S6" s="68">
-        <f t="shared" ref="S6:X9" si="8">R6+1</f>
-        <v>10</v>
-      </c>
-      <c r="T6" s="68">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="U6" s="68">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="V6" s="68">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="W6" s="73">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="X6" s="73">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B7" s="68">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C7" s="68">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="68">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="E7" s="68">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="F7" s="68">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="G7" s="73">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H7" s="73">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J7" s="68">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="K7" s="68">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="L7" s="68">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="M7" s="68">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="68">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="O7" s="73">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="P7" s="73">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="R7" s="68">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="S7" s="68">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="T7" s="68">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="U7" s="68">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="V7" s="68">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="W7" s="73">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="X7" s="73">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B8" s="68">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C8" s="68">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="D8" s="68">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E8" s="68">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="83">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="J8" s="68">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K8" s="68">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="L8" s="68">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="M8" s="68">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="N8" s="68">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O8" s="83">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="P8" s="71"/>
-      <c r="R8" s="68">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="S8" s="68">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="T8" s="68">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="U8" s="68">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="V8" s="68">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="W8" s="73">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="X8" s="73">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="14.6">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="R9" s="69">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="S9" s="86">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-    </row>
-    <row r="10" spans="2:24" ht="14.6"/>
-    <row r="11" spans="2:24" ht="14.6">
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-    </row>
-    <row r="12" spans="2:24" ht="14.6">
-      <c r="B12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="68">
-        <v>1</v>
-      </c>
-      <c r="E13" s="68">
-        <f>D13+1</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="68">
-        <f t="shared" ref="F13:H13" si="9">E13+1</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="73">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="73">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="68">
-        <v>1</v>
-      </c>
-      <c r="O13" s="73">
-        <f>N13+1</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="73">
-        <f>O13+1</f>
-        <v>3</v>
-      </c>
-      <c r="R13" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="68">
-        <f>R13+1</f>
-        <v>2</v>
-      </c>
-      <c r="T13" s="68">
-        <f>S13+1</f>
-        <v>3</v>
-      </c>
-      <c r="U13" s="68">
-        <f t="shared" ref="U13:X13" si="10">T13+1</f>
-        <v>4</v>
-      </c>
-      <c r="V13" s="68">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="W13" s="73">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="X13" s="73">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B14" s="68">
-        <f>H13+1</f>
-        <v>6</v>
-      </c>
-      <c r="C14" s="68">
-        <f>B14+1</f>
-        <v>7</v>
-      </c>
-      <c r="D14" s="68">
-        <f t="shared" ref="D14:H14" si="11">C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="68">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="F14" s="68">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="73">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="73">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="J14" s="68">
-        <f>P13+1</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="68">
-        <f>J14+1</f>
-        <v>5</v>
-      </c>
-      <c r="L14" s="68">
-        <f t="shared" ref="L14:P14" si="12">K14+1</f>
-        <v>6</v>
-      </c>
-      <c r="M14" s="68">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N14" s="68">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="O14" s="73">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="73">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="68">
-        <f>X13+1</f>
-        <v>8</v>
-      </c>
-      <c r="S14" s="68">
-        <f>R14+1</f>
-        <v>9</v>
-      </c>
-      <c r="T14" s="68">
-        <f t="shared" ref="T14:X14" si="13">S14+1</f>
-        <v>10</v>
-      </c>
-      <c r="U14" s="68">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="V14" s="68">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="W14" s="73">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="X14" s="73">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B15" s="68">
-        <f t="shared" ref="B15:B17" si="14">H14+1</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="68">
-        <f t="shared" ref="C15:H17" si="15">B15+1</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="68">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="E15" s="68">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="F15" s="68">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="73">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="H15" s="73">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="J15" s="68">
-        <f t="shared" ref="J15:J17" si="16">P14+1</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="68">
-        <f t="shared" ref="K15:P17" si="17">J15+1</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="68">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="M15" s="68">
-        <f t="shared" si="17"/>
-        <v>14</v>
-      </c>
-      <c r="N15" s="68">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="O15" s="73">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="P15" s="73">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="R15" s="68">
-        <f t="shared" ref="R15:R17" si="18">X14+1</f>
-        <v>15</v>
-      </c>
-      <c r="S15" s="68">
-        <f t="shared" ref="S15:X17" si="19">R15+1</f>
-        <v>16</v>
-      </c>
-      <c r="T15" s="68">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="U15" s="68">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="V15" s="68">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="W15" s="73">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="X15" s="73">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B16" s="68">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="C16" s="68">
-        <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="D16" s="68">
-        <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="E16" s="68">
-        <f t="shared" si="15"/>
-        <v>23</v>
-      </c>
-      <c r="F16" s="68">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="G16" s="73">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="H16" s="73">
-        <f t="shared" si="15"/>
-        <v>26</v>
-      </c>
-      <c r="J16" s="68">
-        <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="68">
-        <f t="shared" si="17"/>
-        <v>19</v>
-      </c>
-      <c r="L16" s="68">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="M16" s="68">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="N16" s="68">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="O16" s="73">
-        <f t="shared" si="17"/>
-        <v>23</v>
-      </c>
-      <c r="P16" s="73">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="R16" s="68">
-        <f t="shared" si="18"/>
-        <v>22</v>
-      </c>
-      <c r="S16" s="82">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="T16" s="68">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="U16" s="68">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="V16" s="68">
-        <f t="shared" si="19"/>
-        <v>26</v>
-      </c>
-      <c r="W16" s="73">
-        <f t="shared" si="19"/>
-        <v>27</v>
-      </c>
-      <c r="X16" s="73">
-        <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B17" s="68">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="C17" s="68">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="D17" s="68">
-        <f t="shared" si="15"/>
-        <v>29</v>
-      </c>
-      <c r="E17" s="83">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="J17" s="68">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="K17" s="68">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="L17" s="68">
-        <f t="shared" si="17"/>
-        <v>27</v>
-      </c>
-      <c r="M17" s="68">
-        <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-      <c r="N17" s="68">
-        <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-      <c r="O17" s="73">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="P17" s="83">
         <f t="shared" si="17"/>
         <v>31</v>
       </c>
@@ -5328,29 +5607,29 @@
     <row r="2" spans="2:24" ht="14.6">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="G2" s="63"/>
       <c r="H2" s="64"/>
       <c r="J2" s="62"/>
       <c r="K2" s="65"/>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="65"/>
       <c r="P2" s="66"/>
       <c r="R2" s="62"/>
       <c r="S2" s="65"/>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
       <c r="W2" s="65"/>
       <c r="X2" s="66"/>
     </row>
@@ -5553,7 +5832,7 @@
         <f t="shared" ref="B6:B8" si="3">H5+1</f>
         <v>13</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="74">
         <f t="shared" ref="C6:H8" si="4">B6+1</f>
         <v>14</v>
       </c>
@@ -5737,7 +6016,7 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="75">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -5759,11 +6038,11 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="N8" s="83">
+      <c r="N8" s="68">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="75">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
@@ -5816,7 +6095,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="S9" s="86">
+      <c r="S9" s="78">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
@@ -5830,29 +6109,29 @@
     <row r="11" spans="2:24" ht="14.6">
       <c r="B11" s="62"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="65"/>
       <c r="H11" s="66"/>
       <c r="J11" s="62"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="65"/>
       <c r="P11" s="66"/>
       <c r="R11" s="62"/>
       <c r="S11" s="65"/>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
       <c r="W11" s="65"/>
       <c r="X11" s="66"/>
     </row>
@@ -6219,7 +6498,7 @@
         <f t="shared" si="18"/>
         <v>22</v>
       </c>
-      <c r="S16" s="82">
+      <c r="S16" s="74">
         <f t="shared" si="19"/>
         <v>23</v>
       </c>
@@ -6257,7 +6536,7 @@
         <f t="shared" si="15"/>
         <v>29</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="75">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
@@ -6280,7 +6559,7 @@
         <f t="shared" si="17"/>
         <v>28</v>
       </c>
-      <c r="N17" s="83">
+      <c r="N17" s="68">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
@@ -6288,7 +6567,7 @@
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="75">
         <f t="shared" si="17"/>
         <v>31</v>
       </c>
@@ -6343,2035 +6622,3074 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.69140625" style="87" customWidth="1"/>
-    <col min="2" max="8" width="3.69140625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="1.69140625" style="87" customWidth="1"/>
-    <col min="10" max="16" width="3.69140625" style="87" customWidth="1"/>
-    <col min="17" max="17" width="1.69140625" style="87" customWidth="1"/>
-    <col min="18" max="24" width="3.69140625" style="87" customWidth="1"/>
-    <col min="25" max="25" width="1.69140625" style="87" customWidth="1"/>
-    <col min="26" max="16384" width="3.69140625" style="87" hidden="1"/>
+    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
+    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="56" customWidth="1"/>
+    <col min="10" max="16" width="6.69140625" style="56" customWidth="1"/>
+    <col min="17" max="17" width="2.69140625" style="56" customWidth="1"/>
+    <col min="18" max="24" width="6.69140625" style="56" customWidth="1"/>
+    <col min="25" max="25" width="1.69140625" style="56" customWidth="1"/>
+    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="10" customHeight="1"/>
-    <row r="2" spans="2:24" ht="10" customHeight="1">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+    <row r="2" spans="2:24" ht="14.6">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="92"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="96"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="94" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="96"/>
-    </row>
-    <row r="3" spans="2:24" ht="10" customHeight="1">
-      <c r="B3" s="113" t="s">
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="66"/>
+    </row>
+    <row r="3" spans="2:24" ht="14.6">
+      <c r="B3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="114" t="s">
+      <c r="P3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="113" t="s">
+      <c r="R3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="113" t="s">
+      <c r="T3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="113" t="s">
+      <c r="U3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="113" t="s">
+      <c r="V3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="114" t="s">
+      <c r="W3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="114" t="s">
+      <c r="X3" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98">
+    <row r="4" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="68">
         <v>1</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="68">
         <f>D4+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="68">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="73">
         <f>F4+1</f>
         <v>4</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="73">
         <f>G4+1</f>
         <v>5</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="99">
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="73">
         <v>1</v>
       </c>
-      <c r="P4" s="99">
+      <c r="P4" s="73">
         <v>2</v>
       </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="99">
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B5" s="98">
+    <row r="5" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B5" s="68">
         <f>H4+1</f>
         <v>6</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="68">
         <f>B5+1</f>
         <v>7</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="68">
         <f t="shared" ref="D5:H5" si="0">C5+1</f>
         <v>8</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="68">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="68">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="73">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="73">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="68">
         <f>P4+1</f>
         <v>3</v>
       </c>
-      <c r="K5" s="98">
+      <c r="K5" s="68">
         <f>J5+1</f>
         <v>4</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="68">
         <f t="shared" ref="L5:P5" si="1">K5+1</f>
         <v>5</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="68">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P5" s="99">
+      <c r="P5" s="73">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R5" s="98">
+      <c r="R5" s="68">
         <f>X4+1</f>
         <v>2</v>
       </c>
-      <c r="S5" s="98">
+      <c r="S5" s="68">
         <f>R5+1</f>
         <v>3</v>
       </c>
-      <c r="T5" s="98">
+      <c r="T5" s="68">
         <f t="shared" ref="T5:X5" si="2">S5+1</f>
         <v>4</v>
       </c>
-      <c r="U5" s="98">
+      <c r="U5" s="68">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="V5" s="98">
+      <c r="V5" s="68">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="W5" s="99">
+      <c r="W5" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="X5" s="99">
+      <c r="X5" s="73">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B6" s="98">
+    <row r="6" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B6" s="68">
         <f t="shared" ref="B6:B8" si="3">H5+1</f>
         <v>13</v>
       </c>
-      <c r="C6" s="98">
-        <f t="shared" ref="C6:H6" si="4">B6+1</f>
+      <c r="C6" s="74">
+        <f t="shared" ref="C6:H8" si="4">B6+1</f>
         <v>14</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="68">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="68">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="68">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="73">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="73">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="68">
         <f t="shared" ref="J6:J8" si="5">P5+1</f>
         <v>10</v>
       </c>
-      <c r="K6" s="98">
-        <f t="shared" ref="K6:P6" si="6">J6+1</f>
+      <c r="K6" s="68">
+        <f t="shared" ref="K6:P8" si="6">J6+1</f>
         <v>11</v>
       </c>
-      <c r="L6" s="98">
+      <c r="L6" s="68">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="M6" s="98">
+      <c r="M6" s="68">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="N6" s="98">
+      <c r="N6" s="68">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="73">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="P6" s="99">
+      <c r="P6" s="73">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="R6" s="98">
-        <f t="shared" ref="R6:R8" si="7">X5+1</f>
+      <c r="R6" s="68">
+        <f t="shared" ref="R6:R9" si="7">X5+1</f>
         <v>9</v>
       </c>
-      <c r="S6" s="98">
-        <f t="shared" ref="S6:X6" si="8">R6+1</f>
+      <c r="S6" s="68">
+        <f t="shared" ref="S6:X9" si="8">R6+1</f>
         <v>10</v>
       </c>
-      <c r="T6" s="98">
+      <c r="T6" s="68">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="U6" s="98">
+      <c r="U6" s="68">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="V6" s="98">
+      <c r="V6" s="68">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="W6" s="99">
+      <c r="W6" s="73">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="X6" s="99">
+      <c r="X6" s="73">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B7" s="98">
+    <row r="7" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B7" s="68">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="C7" s="98">
-        <f t="shared" ref="C7:H7" si="9">B7+1</f>
+      <c r="C7" s="68">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="D7" s="98">
-        <f t="shared" si="9"/>
+      <c r="D7" s="68">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E7" s="98">
-        <f t="shared" si="9"/>
+      <c r="E7" s="68">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="F7" s="98">
-        <f t="shared" si="9"/>
+      <c r="F7" s="68">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="G7" s="99">
-        <f t="shared" si="9"/>
+      <c r="G7" s="73">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H7" s="99">
-        <f t="shared" si="9"/>
+      <c r="H7" s="73">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="68">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="K7" s="98">
-        <f t="shared" ref="K7:P7" si="10">J7+1</f>
+      <c r="K7" s="68">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="L7" s="98">
-        <f t="shared" si="10"/>
+      <c r="L7" s="68">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="M7" s="98">
-        <f t="shared" si="10"/>
+      <c r="M7" s="68">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="N7" s="98">
-        <f t="shared" si="10"/>
+      <c r="N7" s="68">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="O7" s="99">
-        <f t="shared" si="10"/>
+      <c r="O7" s="73">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="P7" s="99">
-        <f t="shared" si="10"/>
+      <c r="P7" s="73">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="R7" s="98">
+      <c r="R7" s="68">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="S7" s="98">
-        <f t="shared" ref="S7:X7" si="11">R7+1</f>
+      <c r="S7" s="68">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="T7" s="98">
-        <f t="shared" si="11"/>
+      <c r="T7" s="68">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="U7" s="98">
-        <f t="shared" si="11"/>
+      <c r="U7" s="68">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="V7" s="98">
-        <f t="shared" si="11"/>
+      <c r="V7" s="68">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="W7" s="99">
-        <f t="shared" si="11"/>
+      <c r="W7" s="73">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="X7" s="99">
-        <f t="shared" si="11"/>
+      <c r="X7" s="73">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B8" s="98">
+    <row r="8" spans="2:24" s="67" customFormat="1" ht="14.6">
+      <c r="B8" s="68">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="C8" s="98">
-        <f t="shared" ref="C8:F8" si="12">B8+1</f>
+      <c r="C8" s="68">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="D8" s="98">
-        <f t="shared" si="12"/>
+      <c r="D8" s="68">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E8" s="98">
-        <f t="shared" si="12"/>
+      <c r="E8" s="68">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="F8" s="98">
-        <f t="shared" si="12"/>
+      <c r="F8" s="75">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="J8" s="98">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="J8" s="68">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="K8" s="98">
-        <f t="shared" ref="K8:O8" si="13">J8+1</f>
+      <c r="K8" s="68">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="L8" s="98">
-        <f t="shared" si="13"/>
+      <c r="L8" s="68">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="M8" s="98">
-        <f t="shared" si="13"/>
+      <c r="M8" s="68">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="N8" s="98">
-        <f t="shared" si="13"/>
+      <c r="N8" s="75">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="O8" s="99">
-        <f t="shared" si="13"/>
+      <c r="O8" s="73">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="R8" s="98">
+      <c r="P8" s="71"/>
+      <c r="R8" s="68">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="S8" s="98">
-        <f t="shared" ref="S8:X9" si="14">R8+1</f>
+      <c r="S8" s="68">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="T8" s="98">
+      <c r="T8" s="68">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="U8" s="68">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="V8" s="68">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="W8" s="73">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="X8" s="73">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="14.6">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="R9" s="69">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="S9" s="78">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="2:24" ht="14.6"/>
+    <row r="11" spans="2:24" ht="14.6">
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="66"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+    </row>
+    <row r="12" spans="2:24" ht="14.6">
+      <c r="B12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="68">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68">
+        <f>D13+1</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" ref="F13:H13" si="9">E13+1</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="73">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="73">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="68">
+        <v>1</v>
+      </c>
+      <c r="O13" s="73">
+        <f>N13+1</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="73">
+        <f>O13+1</f>
+        <v>3</v>
+      </c>
+      <c r="R13" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="68">
+        <f>R13+1</f>
+        <v>2</v>
+      </c>
+      <c r="T13" s="68">
+        <f>S13+1</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="68">
+        <f t="shared" ref="U13:X13" si="10">T13+1</f>
+        <v>4</v>
+      </c>
+      <c r="V13" s="68">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W13" s="73">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X13" s="73">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B14" s="68">
+        <f>H13+1</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="68">
+        <f>B14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="68">
+        <f t="shared" ref="D14:H14" si="11">C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="68">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="68">
+        <f>P13+1</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="68">
+        <f>J14+1</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" ref="L14:P14" si="12">K14+1</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="68">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="68">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="P14" s="73">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="68">
+        <f>X13+1</f>
+        <v>8</v>
+      </c>
+      <c r="S14" s="68">
+        <f>R14+1</f>
+        <v>9</v>
+      </c>
+      <c r="T14" s="68">
+        <f t="shared" ref="T14:X14" si="13">S14+1</f>
+        <v>10</v>
+      </c>
+      <c r="U14" s="68">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="V14" s="68">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="W14" s="73">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="X14" s="73">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B15" s="68">
+        <f t="shared" ref="B15:B17" si="14">H14+1</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="68">
+        <f t="shared" ref="C15:H17" si="15">B15+1</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="68">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="68">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="68">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="73">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="73">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="68">
+        <f t="shared" ref="J15:J17" si="16">P14+1</f>
+        <v>11</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" ref="K15:P17" si="17">J15+1</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="68">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="68">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="68">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="P15" s="73">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="R15" s="68">
+        <f t="shared" ref="R15:R17" si="18">X14+1</f>
+        <v>15</v>
+      </c>
+      <c r="S15" s="68">
+        <f t="shared" ref="S15:X17" si="19">R15+1</f>
+        <v>16</v>
+      </c>
+      <c r="T15" s="68">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="U15" s="68">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="V15" s="68">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="W15" s="73">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="X15" s="73">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B16" s="68">
         <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="68">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="68">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="F16" s="68">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="U8" s="98">
-        <f t="shared" si="14"/>
+      <c r="H16" s="73">
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
-      <c r="V8" s="98">
+      <c r="J16" s="68">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="68">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="68">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N16" s="68">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="O16" s="73">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="P16" s="73">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="R16" s="68">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="S16" s="74">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="T16" s="68">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="U16" s="68">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="V16" s="68">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="W16" s="73">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="X16" s="73">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" s="57" customFormat="1" ht="14.6">
+      <c r="B17" s="68">
         <f t="shared" si="14"/>
         <v>27</v>
       </c>
-      <c r="W8" s="99">
-        <f t="shared" si="14"/>
+      <c r="C17" s="68">
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="X8" s="99">
-        <f t="shared" si="14"/>
+      <c r="D17" s="68">
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" ht="10" customHeight="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="R9" s="104">
-        <f t="shared" ref="R9" si="15">X8+1</f>
+      <c r="E17" s="75">
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="S9" s="104">
-        <f t="shared" si="14"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="J17" s="68">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="L17" s="68">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="M17" s="68">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="N17" s="75">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="O17" s="73">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="P17" s="73">
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-    </row>
-    <row r="10" spans="2:24" ht="10" customHeight="1"/>
-    <row r="11" spans="2:24" ht="10" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="96"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="96"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="96"/>
-    </row>
-    <row r="12" spans="2:24" ht="10" customHeight="1">
-      <c r="B12" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98">
-        <v>1</v>
-      </c>
-      <c r="E13" s="98">
-        <f>D13+1</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="98">
-        <f t="shared" ref="F13:H13" si="16">E13+1</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="99">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="99">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="98">
-        <v>1</v>
-      </c>
-      <c r="O13" s="99">
-        <f>N13+1</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="99">
-        <f>O13+1</f>
-        <v>3</v>
-      </c>
-      <c r="R13" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="98">
-        <f>R13+1</f>
-        <v>2</v>
-      </c>
-      <c r="T13" s="98">
-        <f>S13+1</f>
-        <v>3</v>
-      </c>
-      <c r="U13" s="98">
-        <f t="shared" ref="U13:X13" si="17">T13+1</f>
-        <v>4</v>
-      </c>
-      <c r="V13" s="98">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="W13" s="99">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="X13" s="99">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B14" s="98">
-        <f>H13+1</f>
-        <v>6</v>
-      </c>
-      <c r="C14" s="98">
-        <f>B14+1</f>
-        <v>7</v>
-      </c>
-      <c r="D14" s="98">
-        <f t="shared" ref="D14:H14" si="18">C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="98">
+      <c r="R17" s="68">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="F14" s="98">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="99">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="99">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="J14" s="98">
-        <f>P13+1</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="98">
-        <f>J14+1</f>
-        <v>5</v>
-      </c>
-      <c r="L14" s="98">
-        <f t="shared" ref="L14:P14" si="19">K14+1</f>
-        <v>6</v>
-      </c>
-      <c r="M14" s="98">
+        <v>29</v>
+      </c>
+      <c r="S17" s="68">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="N14" s="98">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="O14" s="99">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="99">
-        <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="98">
-        <f>X13+1</f>
-        <v>8</v>
-      </c>
-      <c r="S14" s="98">
-        <f>R14+1</f>
-        <v>9</v>
-      </c>
-      <c r="T14" s="98">
-        <f t="shared" ref="T14:X14" si="20">S14+1</f>
-        <v>10</v>
-      </c>
-      <c r="U14" s="98">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="V14" s="98">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="W14" s="99">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="X14" s="99">
-        <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B15" s="98">
-        <f t="shared" ref="B15:B17" si="21">H14+1</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="98">
-        <f t="shared" ref="C15:H15" si="22">B15+1</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="98">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="E15" s="98">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="F15" s="98">
-        <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="99">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="H15" s="99">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="J15" s="98">
-        <f t="shared" ref="J15:J17" si="23">P14+1</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="98">
-        <f t="shared" ref="K15:P15" si="24">J15+1</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="98">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="M15" s="98">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="N15" s="98">
-        <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="O15" s="99">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="P15" s="99">
-        <f t="shared" si="24"/>
-        <v>17</v>
-      </c>
-      <c r="R15" s="98">
-        <f t="shared" ref="R15:R17" si="25">X14+1</f>
-        <v>15</v>
-      </c>
-      <c r="S15" s="98">
-        <f t="shared" ref="S15:X15" si="26">R15+1</f>
-        <v>16</v>
-      </c>
-      <c r="T15" s="98">
-        <f t="shared" si="26"/>
-        <v>17</v>
-      </c>
-      <c r="U15" s="98">
-        <f t="shared" si="26"/>
-        <v>18</v>
-      </c>
-      <c r="V15" s="98">
-        <f t="shared" si="26"/>
-        <v>19</v>
-      </c>
-      <c r="W15" s="99">
-        <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="X15" s="99">
-        <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B16" s="98">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="C16" s="98">
-        <f t="shared" ref="C16:H16" si="27">B16+1</f>
-        <v>21</v>
-      </c>
-      <c r="D16" s="98">
-        <f t="shared" si="27"/>
-        <v>22</v>
-      </c>
-      <c r="E16" s="98">
-        <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-      <c r="F16" s="98">
-        <f t="shared" si="27"/>
-        <v>24</v>
-      </c>
-      <c r="G16" s="99">
-        <f t="shared" si="27"/>
-        <v>25</v>
-      </c>
-      <c r="H16" s="99">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-      <c r="J16" s="98">
-        <f t="shared" si="23"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="98">
-        <f t="shared" ref="K16:P16" si="28">J16+1</f>
-        <v>19</v>
-      </c>
-      <c r="L16" s="98">
-        <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="M16" s="98">
-        <f t="shared" si="28"/>
-        <v>21</v>
-      </c>
-      <c r="N16" s="98">
-        <f t="shared" si="28"/>
-        <v>22</v>
-      </c>
-      <c r="O16" s="99">
-        <f t="shared" si="28"/>
-        <v>23</v>
-      </c>
-      <c r="P16" s="99">
-        <f t="shared" si="28"/>
-        <v>24</v>
-      </c>
-      <c r="R16" s="98">
-        <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="S16" s="98">
-        <f t="shared" ref="S16:X16" si="29">R16+1</f>
-        <v>23</v>
-      </c>
-      <c r="T16" s="98">
-        <f t="shared" si="29"/>
-        <v>24</v>
-      </c>
-      <c r="U16" s="98">
-        <f t="shared" si="29"/>
-        <v>25</v>
-      </c>
-      <c r="V16" s="98">
-        <f t="shared" si="29"/>
-        <v>26</v>
-      </c>
-      <c r="W16" s="99">
-        <f t="shared" si="29"/>
-        <v>27</v>
-      </c>
-      <c r="X16" s="99">
-        <f t="shared" si="29"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B17" s="98">
-        <f t="shared" si="21"/>
-        <v>27</v>
-      </c>
-      <c r="C17" s="98">
-        <f t="shared" ref="C17:E17" si="30">B17+1</f>
-        <v>28</v>
-      </c>
-      <c r="D17" s="98">
-        <f t="shared" si="30"/>
-        <v>29</v>
-      </c>
-      <c r="E17" s="98">
-        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="J17" s="98">
-        <f t="shared" si="23"/>
-        <v>25</v>
-      </c>
-      <c r="K17" s="98">
-        <f t="shared" ref="K17:P17" si="31">J17+1</f>
-        <v>26</v>
-      </c>
-      <c r="L17" s="98">
-        <f t="shared" si="31"/>
-        <v>27</v>
-      </c>
-      <c r="M17" s="98">
-        <f t="shared" si="31"/>
-        <v>28</v>
-      </c>
-      <c r="N17" s="98">
-        <f t="shared" si="31"/>
-        <v>29</v>
-      </c>
-      <c r="O17" s="99">
-        <f t="shared" si="31"/>
-        <v>30</v>
-      </c>
-      <c r="P17" s="99">
-        <f t="shared" si="31"/>
-        <v>31</v>
-      </c>
-      <c r="R17" s="98">
-        <f t="shared" si="25"/>
-        <v>29</v>
-      </c>
-      <c r="S17" s="98">
-        <f t="shared" ref="S17" si="32">R17+1</f>
-        <v>30</v>
-      </c>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-    </row>
-    <row r="18" spans="1:24" ht="10" customHeight="1"/>
-    <row r="19" spans="1:24" ht="10" customHeight="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="96"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="96"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="96"/>
-    </row>
-    <row r="20" spans="1:24" ht="10" customHeight="1">
-      <c r="B20" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="X20" s="114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="A21" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="98">
-        <v>1</v>
-      </c>
-      <c r="E21" s="98">
-        <f>+D21+1</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="98">
-        <f t="shared" ref="F21:H21" si="33">+E21+1</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="99">
-        <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="H21" s="99">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="99">
-        <v>1</v>
-      </c>
-      <c r="P21" s="99">
-        <f>O21+1</f>
-        <v>2</v>
-      </c>
-      <c r="R21" s="97"/>
-      <c r="S21" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="98">
-        <f>S21+1</f>
-        <v>2</v>
-      </c>
-      <c r="U21" s="98">
-        <f>T21+1</f>
-        <v>3</v>
-      </c>
-      <c r="V21" s="98">
-        <f>U21+1</f>
-        <v>4</v>
-      </c>
-      <c r="W21" s="99">
-        <f>V21+1</f>
-        <v>5</v>
-      </c>
-      <c r="X21" s="99">
-        <f>W21+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B22" s="98">
-        <f>H21+1</f>
-        <v>6</v>
-      </c>
-      <c r="C22" s="98">
-        <f>B22+1</f>
-        <v>7</v>
-      </c>
-      <c r="D22" s="98">
-        <f t="shared" ref="D22:H22" si="34">C22+1</f>
-        <v>8</v>
-      </c>
-      <c r="E22" s="98">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="F22" s="98">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="G22" s="99">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="H22" s="99">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="J22" s="98">
-        <f>P21+1</f>
-        <v>3</v>
-      </c>
-      <c r="K22" s="98">
-        <f>J22+1</f>
-        <v>4</v>
-      </c>
-      <c r="L22" s="98">
-        <f t="shared" ref="L22:P22" si="35">K22+1</f>
-        <v>5</v>
-      </c>
-      <c r="M22" s="98">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="N22" s="98">
-        <f t="shared" si="35"/>
-        <v>7</v>
-      </c>
-      <c r="O22" s="99">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="P22" s="99">
-        <f t="shared" si="35"/>
-        <v>9</v>
-      </c>
-      <c r="R22" s="98">
-        <f>X21+1</f>
-        <v>7</v>
-      </c>
-      <c r="S22" s="98">
-        <f>R22+1</f>
-        <v>8</v>
-      </c>
-      <c r="T22" s="98">
-        <f t="shared" ref="T22:X22" si="36">S22+1</f>
-        <v>9</v>
-      </c>
-      <c r="U22" s="98">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="V22" s="98">
-        <f t="shared" si="36"/>
-        <v>11</v>
-      </c>
-      <c r="W22" s="99">
-        <f t="shared" si="36"/>
-        <v>12</v>
-      </c>
-      <c r="X22" s="99">
-        <f t="shared" si="36"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B23" s="98">
-        <f t="shared" ref="B23:B24" si="37">H22+1</f>
-        <v>13</v>
-      </c>
-      <c r="C23" s="98">
-        <f t="shared" ref="C23:H23" si="38">B23+1</f>
-        <v>14</v>
-      </c>
-      <c r="D23" s="98">
-        <f t="shared" si="38"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="98">
-        <f t="shared" si="38"/>
-        <v>16</v>
-      </c>
-      <c r="F23" s="98">
-        <f t="shared" si="38"/>
-        <v>17</v>
-      </c>
-      <c r="G23" s="99">
-        <f t="shared" si="38"/>
-        <v>18</v>
-      </c>
-      <c r="H23" s="99">
-        <f t="shared" si="38"/>
-        <v>19</v>
-      </c>
-      <c r="J23" s="98">
-        <f t="shared" ref="J23:J26" si="39">P22+1</f>
-        <v>10</v>
-      </c>
-      <c r="K23" s="98">
-        <f t="shared" ref="K23:P23" si="40">J23+1</f>
-        <v>11</v>
-      </c>
-      <c r="L23" s="98">
-        <f t="shared" si="40"/>
-        <v>12</v>
-      </c>
-      <c r="M23" s="98">
-        <f t="shared" si="40"/>
-        <v>13</v>
-      </c>
-      <c r="N23" s="98">
-        <f t="shared" si="40"/>
-        <v>14</v>
-      </c>
-      <c r="O23" s="99">
-        <f t="shared" si="40"/>
-        <v>15</v>
-      </c>
-      <c r="P23" s="99">
-        <f t="shared" si="40"/>
-        <v>16</v>
-      </c>
-      <c r="R23" s="98">
-        <f t="shared" ref="R23:R25" si="41">X22+1</f>
-        <v>14</v>
-      </c>
-      <c r="S23" s="98">
-        <f t="shared" ref="S23:X23" si="42">R23+1</f>
-        <v>15</v>
-      </c>
-      <c r="T23" s="98">
-        <f t="shared" si="42"/>
-        <v>16</v>
-      </c>
-      <c r="U23" s="98">
-        <f t="shared" si="42"/>
-        <v>17</v>
-      </c>
-      <c r="V23" s="98">
-        <f t="shared" si="42"/>
-        <v>18</v>
-      </c>
-      <c r="W23" s="99">
-        <f t="shared" si="42"/>
-        <v>19</v>
-      </c>
-      <c r="X23" s="99">
-        <f t="shared" si="42"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B24" s="98">
-        <f t="shared" si="37"/>
-        <v>20</v>
-      </c>
-      <c r="C24" s="98">
-        <f t="shared" ref="C24:H25" si="43">B24+1</f>
-        <v>21</v>
-      </c>
-      <c r="D24" s="98">
-        <f t="shared" si="43"/>
-        <v>22</v>
-      </c>
-      <c r="E24" s="98">
-        <f t="shared" si="43"/>
-        <v>23</v>
-      </c>
-      <c r="F24" s="98">
-        <f t="shared" si="43"/>
-        <v>24</v>
-      </c>
-      <c r="G24" s="99">
-        <f t="shared" si="43"/>
-        <v>25</v>
-      </c>
-      <c r="H24" s="99">
-        <f t="shared" si="43"/>
-        <v>26</v>
-      </c>
-      <c r="J24" s="98">
-        <f t="shared" si="39"/>
-        <v>17</v>
-      </c>
-      <c r="K24" s="98">
-        <f t="shared" ref="K24:P24" si="44">J24+1</f>
-        <v>18</v>
-      </c>
-      <c r="L24" s="98">
-        <f t="shared" si="44"/>
-        <v>19</v>
-      </c>
-      <c r="M24" s="98">
-        <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="N24" s="98">
-        <f t="shared" si="44"/>
-        <v>21</v>
-      </c>
-      <c r="O24" s="99">
-        <f t="shared" si="44"/>
-        <v>22</v>
-      </c>
-      <c r="P24" s="99">
-        <f t="shared" si="44"/>
-        <v>23</v>
-      </c>
-      <c r="R24" s="98">
-        <f t="shared" si="41"/>
-        <v>21</v>
-      </c>
-      <c r="S24" s="98">
-        <f t="shared" ref="S24:X24" si="45">R24+1</f>
-        <v>22</v>
-      </c>
-      <c r="T24" s="98">
-        <f t="shared" si="45"/>
-        <v>23</v>
-      </c>
-      <c r="U24" s="98">
-        <f t="shared" si="45"/>
-        <v>24</v>
-      </c>
-      <c r="V24" s="98">
-        <f t="shared" si="45"/>
-        <v>25</v>
-      </c>
-      <c r="W24" s="99">
-        <f t="shared" si="45"/>
-        <v>26</v>
-      </c>
-      <c r="X24" s="99">
-        <f t="shared" si="45"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B25" s="98">
-        <f t="shared" ref="B25" si="46">H24+1</f>
-        <v>27</v>
-      </c>
-      <c r="C25" s="98">
-        <f t="shared" si="43"/>
-        <v>28</v>
-      </c>
-      <c r="D25" s="98">
-        <f t="shared" si="43"/>
-        <v>29</v>
-      </c>
-      <c r="E25" s="98">
-        <f t="shared" si="43"/>
-        <v>30</v>
-      </c>
-      <c r="F25" s="98">
-        <f t="shared" si="43"/>
-        <v>31</v>
-      </c>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="J25" s="98">
-        <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="K25" s="98">
-        <f t="shared" ref="K25:P25" si="47">J25+1</f>
-        <v>25</v>
-      </c>
-      <c r="L25" s="98">
-        <f t="shared" si="47"/>
-        <v>26</v>
-      </c>
-      <c r="M25" s="98">
-        <f t="shared" si="47"/>
-        <v>27</v>
-      </c>
-      <c r="N25" s="98">
-        <f t="shared" si="47"/>
-        <v>28</v>
-      </c>
-      <c r="O25" s="99">
-        <f t="shared" si="47"/>
-        <v>29</v>
-      </c>
-      <c r="P25" s="99">
-        <f t="shared" si="47"/>
-        <v>30</v>
-      </c>
-      <c r="R25" s="98">
-        <f t="shared" si="41"/>
-        <v>28</v>
-      </c>
-      <c r="S25" s="98">
-        <f t="shared" ref="S25:T25" si="48">R25+1</f>
-        <v>29</v>
-      </c>
-      <c r="T25" s="98">
-        <f t="shared" si="48"/>
-        <v>30</v>
-      </c>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-    </row>
-    <row r="26" spans="1:24" s="106" customFormat="1" ht="10" customHeight="1">
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="J26" s="98">
-        <f t="shared" si="39"/>
-        <v>31</v>
-      </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-    </row>
-    <row r="27" spans="1:24" ht="10" customHeight="1"/>
-    <row r="28" spans="1:24" ht="10" customHeight="1">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="96"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="96"/>
-    </row>
-    <row r="29" spans="1:24" ht="10" customHeight="1">
-      <c r="B29" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="S29" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="W29" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="X29" s="114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="98">
-        <v>1</v>
-      </c>
-      <c r="F30" s="98">
-        <v>2</v>
-      </c>
-      <c r="G30" s="99">
-        <v>3</v>
-      </c>
-      <c r="H30" s="99">
-        <v>4</v>
-      </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="99">
-        <v>1</v>
-      </c>
-      <c r="R30" s="101"/>
-      <c r="S30" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="98">
-        <f>S30+1</f>
-        <v>2</v>
-      </c>
-      <c r="U30" s="98">
-        <f t="shared" ref="U30:X30" si="49">T30+1</f>
-        <v>3</v>
-      </c>
-      <c r="V30" s="98">
-        <f t="shared" si="49"/>
-        <v>4</v>
-      </c>
-      <c r="W30" s="99">
-        <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-      <c r="X30" s="99">
-        <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B31" s="98">
-        <f>H30+1</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="98">
-        <f>B31+1</f>
-        <v>6</v>
-      </c>
-      <c r="D31" s="98">
-        <f t="shared" ref="D31:H31" si="50">C31+1</f>
-        <v>7</v>
-      </c>
-      <c r="E31" s="98">
-        <f t="shared" si="50"/>
-        <v>8</v>
-      </c>
-      <c r="F31" s="98">
-        <f t="shared" si="50"/>
-        <v>9</v>
-      </c>
-      <c r="G31" s="99">
-        <f t="shared" si="50"/>
-        <v>10</v>
-      </c>
-      <c r="H31" s="99">
-        <f t="shared" si="50"/>
-        <v>11</v>
-      </c>
-      <c r="J31" s="98">
-        <f>P30+1</f>
-        <v>2</v>
-      </c>
-      <c r="K31" s="98">
-        <f>J31+1</f>
-        <v>3</v>
-      </c>
-      <c r="L31" s="98">
-        <f t="shared" ref="L31:P31" si="51">K31+1</f>
-        <v>4</v>
-      </c>
-      <c r="M31" s="98">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="N31" s="98">
-        <f t="shared" si="51"/>
-        <v>6</v>
-      </c>
-      <c r="O31" s="99">
-        <f t="shared" si="51"/>
-        <v>7</v>
-      </c>
-      <c r="P31" s="99">
-        <f t="shared" si="51"/>
-        <v>8</v>
-      </c>
-      <c r="R31" s="98">
-        <f>X30+1</f>
-        <v>7</v>
-      </c>
-      <c r="S31" s="98">
-        <f>R31+1</f>
-        <v>8</v>
-      </c>
-      <c r="T31" s="98">
-        <f t="shared" ref="T31:X31" si="52">S31+1</f>
-        <v>9</v>
-      </c>
-      <c r="U31" s="98">
-        <f t="shared" si="52"/>
-        <v>10</v>
-      </c>
-      <c r="V31" s="98">
-        <f t="shared" si="52"/>
-        <v>11</v>
-      </c>
-      <c r="W31" s="99">
-        <f t="shared" si="52"/>
-        <v>12</v>
-      </c>
-      <c r="X31" s="99">
-        <f t="shared" si="52"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B32" s="98">
-        <f t="shared" ref="B32:B34" si="53">H31+1</f>
-        <v>12</v>
-      </c>
-      <c r="C32" s="98">
-        <f t="shared" ref="C32:H32" si="54">B32+1</f>
-        <v>13</v>
-      </c>
-      <c r="D32" s="98">
-        <f t="shared" si="54"/>
-        <v>14</v>
-      </c>
-      <c r="E32" s="98">
-        <f t="shared" si="54"/>
-        <v>15</v>
-      </c>
-      <c r="F32" s="98">
-        <f t="shared" si="54"/>
-        <v>16</v>
-      </c>
-      <c r="G32" s="99">
-        <f t="shared" si="54"/>
-        <v>17</v>
-      </c>
-      <c r="H32" s="99">
-        <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="J32" s="98">
-        <f t="shared" ref="J32:J35" si="55">P31+1</f>
-        <v>9</v>
-      </c>
-      <c r="K32" s="98">
-        <f t="shared" ref="K32:P32" si="56">J32+1</f>
-        <v>10</v>
-      </c>
-      <c r="L32" s="98">
-        <f t="shared" si="56"/>
-        <v>11</v>
-      </c>
-      <c r="M32" s="98">
-        <f t="shared" si="56"/>
-        <v>12</v>
-      </c>
-      <c r="N32" s="98">
-        <f t="shared" si="56"/>
-        <v>13</v>
-      </c>
-      <c r="O32" s="99">
-        <f t="shared" si="56"/>
-        <v>14</v>
-      </c>
-      <c r="P32" s="99">
-        <f t="shared" si="56"/>
-        <v>15</v>
-      </c>
-      <c r="R32" s="98">
-        <f t="shared" ref="R32:R34" si="57">X31+1</f>
-        <v>14</v>
-      </c>
-      <c r="S32" s="98">
-        <f t="shared" ref="S32:X32" si="58">R32+1</f>
-        <v>15</v>
-      </c>
-      <c r="T32" s="98">
-        <f t="shared" si="58"/>
-        <v>16</v>
-      </c>
-      <c r="U32" s="98">
-        <f t="shared" si="58"/>
-        <v>17</v>
-      </c>
-      <c r="V32" s="98">
-        <f t="shared" si="58"/>
-        <v>18</v>
-      </c>
-      <c r="W32" s="99">
-        <f t="shared" si="58"/>
-        <v>19</v>
-      </c>
-      <c r="X32" s="99">
-        <f t="shared" si="58"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B33" s="98">
-        <f t="shared" si="53"/>
-        <v>19</v>
-      </c>
-      <c r="C33" s="98">
-        <f t="shared" ref="C33:H33" si="59">B33+1</f>
-        <v>20</v>
-      </c>
-      <c r="D33" s="98">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="E33" s="98">
-        <f t="shared" si="59"/>
-        <v>22</v>
-      </c>
-      <c r="F33" s="98">
-        <f t="shared" si="59"/>
-        <v>23</v>
-      </c>
-      <c r="G33" s="99">
-        <f t="shared" si="59"/>
-        <v>24</v>
-      </c>
-      <c r="H33" s="99">
-        <f t="shared" si="59"/>
-        <v>25</v>
-      </c>
-      <c r="J33" s="98">
-        <f t="shared" si="55"/>
-        <v>16</v>
-      </c>
-      <c r="K33" s="98">
-        <f t="shared" ref="K33:P33" si="60">J33+1</f>
-        <v>17</v>
-      </c>
-      <c r="L33" s="98">
-        <f t="shared" si="60"/>
-        <v>18</v>
-      </c>
-      <c r="M33" s="98">
-        <f t="shared" si="60"/>
-        <v>19</v>
-      </c>
-      <c r="N33" s="98">
-        <f t="shared" si="60"/>
-        <v>20</v>
-      </c>
-      <c r="O33" s="99">
-        <f t="shared" si="60"/>
-        <v>21</v>
-      </c>
-      <c r="P33" s="99">
-        <f t="shared" si="60"/>
-        <v>22</v>
-      </c>
-      <c r="R33" s="98">
-        <f t="shared" si="57"/>
-        <v>21</v>
-      </c>
-      <c r="S33" s="98">
-        <f t="shared" ref="S33:X33" si="61">R33+1</f>
-        <v>22</v>
-      </c>
-      <c r="T33" s="98">
-        <f t="shared" si="61"/>
-        <v>23</v>
-      </c>
-      <c r="U33" s="98">
-        <f t="shared" si="61"/>
-        <v>24</v>
-      </c>
-      <c r="V33" s="98">
-        <f t="shared" si="61"/>
-        <v>25</v>
-      </c>
-      <c r="W33" s="99">
-        <f t="shared" si="61"/>
-        <v>26</v>
-      </c>
-      <c r="X33" s="99">
-        <f t="shared" si="61"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B34" s="98">
-        <f t="shared" si="53"/>
-        <v>26</v>
-      </c>
-      <c r="C34" s="98">
-        <f t="shared" ref="C34:G34" si="62">B34+1</f>
-        <v>27</v>
-      </c>
-      <c r="D34" s="98">
-        <f t="shared" si="62"/>
-        <v>28</v>
-      </c>
-      <c r="E34" s="98">
-        <f t="shared" si="62"/>
-        <v>29</v>
-      </c>
-      <c r="F34" s="98">
-        <f t="shared" si="62"/>
-        <v>30</v>
-      </c>
-      <c r="G34" s="99">
-        <f t="shared" si="62"/>
-        <v>31</v>
-      </c>
-      <c r="H34" s="101"/>
-      <c r="J34" s="98">
-        <f t="shared" si="55"/>
-        <v>23</v>
-      </c>
-      <c r="K34" s="98">
-        <f t="shared" ref="K34:P34" si="63">J34+1</f>
-        <v>24</v>
-      </c>
-      <c r="L34" s="98">
-        <f t="shared" si="63"/>
-        <v>25</v>
-      </c>
-      <c r="M34" s="98">
-        <f t="shared" si="63"/>
-        <v>26</v>
-      </c>
-      <c r="N34" s="98">
-        <f t="shared" si="63"/>
-        <v>27</v>
-      </c>
-      <c r="O34" s="99">
-        <f t="shared" si="63"/>
-        <v>28</v>
-      </c>
-      <c r="P34" s="99">
-        <f t="shared" si="63"/>
-        <v>29</v>
-      </c>
-      <c r="R34" s="98">
-        <f t="shared" si="57"/>
-        <v>28</v>
-      </c>
-      <c r="S34" s="98">
-        <f t="shared" ref="S34:U34" si="64">R34+1</f>
-        <v>29</v>
-      </c>
-      <c r="T34" s="98">
-        <f t="shared" si="64"/>
-        <v>30</v>
-      </c>
-      <c r="U34" s="98">
-        <f t="shared" si="64"/>
-        <v>31</v>
-      </c>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-    </row>
-    <row r="35" spans="2:24" s="100" customFormat="1" ht="10" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="J35" s="98">
-        <f t="shared" si="55"/>
-        <v>30</v>
-      </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-    </row>
-    <row r="36" spans="2:24" ht="10" customHeight="1"/>
-    <row r="37" spans="2:24" ht="7.3" hidden="1" customHeight="1"/>
-    <row r="38" spans="2:24" ht="7.3" hidden="1" customHeight="1"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+    </row>
+    <row r="18" spans="2:24" ht="10" customHeight="1">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="T11:V11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.69140625" style="79" customWidth="1"/>
+    <col min="2" max="8" width="3.69140625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" style="79" customWidth="1"/>
+    <col min="10" max="16" width="3.69140625" style="79" customWidth="1"/>
+    <col min="17" max="17" width="1.69140625" style="79" customWidth="1"/>
+    <col min="18" max="24" width="3.69140625" style="79" customWidth="1"/>
+    <col min="25" max="25" width="1.69140625" style="79" customWidth="1"/>
+    <col min="26" max="16384" width="3.69140625" style="79" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="10" customHeight="1"/>
+    <row r="2" spans="2:24" ht="10" customHeight="1">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="2:24" ht="10" customHeight="1">
+      <c r="B3" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86">
+        <v>1</v>
+      </c>
+      <c r="E4" s="86">
+        <f>D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="86">
+        <f>E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="87">
+        <f>F4+1</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="87">
+        <f>G4+1</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="87">
+        <v>1</v>
+      </c>
+      <c r="P4" s="87">
+        <v>2</v>
+      </c>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B5" s="86">
+        <f>H4+1</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="86">
+        <f>B5+1</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="86">
+        <f t="shared" ref="D5:H5" si="0">C5+1</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="86">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="86">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="87">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="86">
+        <f>P4+1</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="86">
+        <f>J5+1</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="86">
+        <f t="shared" ref="L5:P5" si="1">K5+1</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="86">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N5" s="86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O5" s="87">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P5" s="87">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R5" s="86">
+        <f>X4+1</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="86">
+        <f>R5+1</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="86">
+        <f t="shared" ref="T5:X5" si="2">S5+1</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="86">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V5" s="86">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W5" s="87">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X5" s="87">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B6" s="86">
+        <f t="shared" ref="B6:B8" si="3">H5+1</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="86">
+        <f t="shared" ref="C6:H6" si="4">B6+1</f>
+        <v>14</v>
+      </c>
+      <c r="D6" s="86">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="86">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="86">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="87">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="86">
+        <f t="shared" ref="J6:J8" si="5">P5+1</f>
+        <v>10</v>
+      </c>
+      <c r="K6" s="86">
+        <f t="shared" ref="K6:P6" si="6">J6+1</f>
+        <v>11</v>
+      </c>
+      <c r="L6" s="86">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M6" s="86">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="86">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O6" s="87">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="P6" s="87">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="R6" s="86">
+        <f t="shared" ref="R6:R8" si="7">X5+1</f>
+        <v>9</v>
+      </c>
+      <c r="S6" s="86">
+        <f t="shared" ref="S6:X6" si="8">R6+1</f>
+        <v>10</v>
+      </c>
+      <c r="T6" s="86">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="U6" s="86">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V6" s="86">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="W6" s="87">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="X6" s="87">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B7" s="86">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="86">
+        <f t="shared" ref="C7:H7" si="9">B7+1</f>
+        <v>21</v>
+      </c>
+      <c r="D7" s="86">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="86">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="86">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="87">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="86">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="86">
+        <f t="shared" ref="K7:P7" si="10">J7+1</f>
+        <v>18</v>
+      </c>
+      <c r="L7" s="86">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="M7" s="86">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="N7" s="86">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="O7" s="87">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="P7" s="87">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="R7" s="86">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="S7" s="86">
+        <f t="shared" ref="S7:X7" si="11">R7+1</f>
+        <v>17</v>
+      </c>
+      <c r="T7" s="86">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="U7" s="86">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="V7" s="86">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="W7" s="87">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="X7" s="87">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B8" s="86">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="86">
+        <f t="shared" ref="C8:F8" si="12">B8+1</f>
+        <v>28</v>
+      </c>
+      <c r="D8" s="86">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="86">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="86">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="J8" s="86">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K8" s="86">
+        <f t="shared" ref="K8:O8" si="13">J8+1</f>
+        <v>25</v>
+      </c>
+      <c r="L8" s="86">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="N8" s="86">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="O8" s="87">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="P8" s="89"/>
+      <c r="R8" s="86">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="S8" s="86">
+        <f t="shared" ref="S8:X9" si="14">R8+1</f>
+        <v>24</v>
+      </c>
+      <c r="T8" s="86">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="U8" s="86">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="V8" s="86">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="W8" s="87">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="X8" s="87">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="10" customHeight="1">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="R9" s="92">
+        <f t="shared" ref="R9" si="15">X8+1</f>
+        <v>30</v>
+      </c>
+      <c r="S9" s="92">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+    </row>
+    <row r="10" spans="2:24" ht="10" customHeight="1"/>
+    <row r="11" spans="2:24" ht="10" customHeight="1">
+      <c r="B11" s="80"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="84"/>
+    </row>
+    <row r="12" spans="2:24" ht="10" customHeight="1">
+      <c r="B12" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86">
+        <v>1</v>
+      </c>
+      <c r="E13" s="86">
+        <f>D13+1</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="86">
+        <f t="shared" ref="F13:H13" si="16">E13+1</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="87">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="86">
+        <v>1</v>
+      </c>
+      <c r="O13" s="87">
+        <f>N13+1</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="87">
+        <f>O13+1</f>
+        <v>3</v>
+      </c>
+      <c r="R13" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="86">
+        <f>R13+1</f>
+        <v>2</v>
+      </c>
+      <c r="T13" s="86">
+        <f>S13+1</f>
+        <v>3</v>
+      </c>
+      <c r="U13" s="86">
+        <f t="shared" ref="U13:X13" si="17">T13+1</f>
+        <v>4</v>
+      </c>
+      <c r="V13" s="86">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="W13" s="87">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="X13" s="87">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B14" s="86">
+        <f>H13+1</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="86">
+        <f>B14+1</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="86">
+        <f t="shared" ref="D14:H14" si="18">C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="86">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="86">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="87">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="86">
+        <f>P13+1</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="86">
+        <f>J14+1</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="86">
+        <f t="shared" ref="L14:P14" si="19">K14+1</f>
+        <v>6</v>
+      </c>
+      <c r="M14" s="86">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="86">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="87">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="P14" s="87">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="86">
+        <f>X13+1</f>
+        <v>8</v>
+      </c>
+      <c r="S14" s="86">
+        <f>R14+1</f>
+        <v>9</v>
+      </c>
+      <c r="T14" s="86">
+        <f t="shared" ref="T14:X14" si="20">S14+1</f>
+        <v>10</v>
+      </c>
+      <c r="U14" s="86">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="V14" s="86">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="W14" s="87">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="X14" s="87">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B15" s="86">
+        <f t="shared" ref="B15:B17" si="21">H14+1</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="86">
+        <f t="shared" ref="C15:H15" si="22">B15+1</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="86">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="86">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="86">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="87">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="86">
+        <f t="shared" ref="J15:J17" si="23">P14+1</f>
+        <v>11</v>
+      </c>
+      <c r="K15" s="86">
+        <f t="shared" ref="K15:P15" si="24">J15+1</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="86">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="86">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="86">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="87">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="P15" s="87">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="R15" s="86">
+        <f t="shared" ref="R15:R17" si="25">X14+1</f>
+        <v>15</v>
+      </c>
+      <c r="S15" s="86">
+        <f t="shared" ref="S15:X15" si="26">R15+1</f>
+        <v>16</v>
+      </c>
+      <c r="T15" s="86">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="U15" s="86">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="V15" s="86">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="W15" s="87">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="X15" s="87">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B16" s="86">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="86">
+        <f t="shared" ref="C16:H16" si="27">B16+1</f>
+        <v>21</v>
+      </c>
+      <c r="D16" s="86">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="86">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="F16" s="86">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="87">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="87">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="86">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="86">
+        <f t="shared" ref="K16:P16" si="28">J16+1</f>
+        <v>19</v>
+      </c>
+      <c r="L16" s="86">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="86">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="N16" s="86">
+        <f t="shared" si="28"/>
+        <v>22</v>
+      </c>
+      <c r="O16" s="87">
+        <f t="shared" si="28"/>
+        <v>23</v>
+      </c>
+      <c r="P16" s="87">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="R16" s="86">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="S16" s="86">
+        <f t="shared" ref="S16:X16" si="29">R16+1</f>
+        <v>23</v>
+      </c>
+      <c r="T16" s="86">
+        <f t="shared" si="29"/>
+        <v>24</v>
+      </c>
+      <c r="U16" s="86">
+        <f t="shared" si="29"/>
+        <v>25</v>
+      </c>
+      <c r="V16" s="86">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+      <c r="W16" s="87">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+      <c r="X16" s="87">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B17" s="86">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="86">
+        <f t="shared" ref="C17:E17" si="30">B17+1</f>
+        <v>28</v>
+      </c>
+      <c r="D17" s="86">
+        <f t="shared" si="30"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="86">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="J17" s="86">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="K17" s="86">
+        <f t="shared" ref="K17:P17" si="31">J17+1</f>
+        <v>26</v>
+      </c>
+      <c r="L17" s="86">
+        <f t="shared" si="31"/>
+        <v>27</v>
+      </c>
+      <c r="M17" s="86">
+        <f t="shared" si="31"/>
+        <v>28</v>
+      </c>
+      <c r="N17" s="86">
+        <f t="shared" si="31"/>
+        <v>29</v>
+      </c>
+      <c r="O17" s="87">
+        <f t="shared" si="31"/>
+        <v>30</v>
+      </c>
+      <c r="P17" s="87">
+        <f t="shared" si="31"/>
+        <v>31</v>
+      </c>
+      <c r="R17" s="86">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="S17" s="86">
+        <f t="shared" ref="S17" si="32">R17+1</f>
+        <v>30</v>
+      </c>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+    </row>
+    <row r="18" spans="1:24" ht="10" customHeight="1"/>
+    <row r="19" spans="1:24" ht="10" customHeight="1">
+      <c r="B19" s="80"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="84"/>
+    </row>
+    <row r="20" spans="1:24" ht="10" customHeight="1">
+      <c r="B20" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="A21" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="86">
+        <v>1</v>
+      </c>
+      <c r="E21" s="86">
+        <f>+D21+1</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="86">
+        <f t="shared" ref="F21:H21" si="33">+E21+1</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="87">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="87">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="87">
+        <v>1</v>
+      </c>
+      <c r="P21" s="87">
+        <f>O21+1</f>
+        <v>2</v>
+      </c>
+      <c r="R21" s="85"/>
+      <c r="S21" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="86">
+        <f>S21+1</f>
+        <v>2</v>
+      </c>
+      <c r="U21" s="86">
+        <f>T21+1</f>
+        <v>3</v>
+      </c>
+      <c r="V21" s="86">
+        <f>U21+1</f>
+        <v>4</v>
+      </c>
+      <c r="W21" s="87">
+        <f>V21+1</f>
+        <v>5</v>
+      </c>
+      <c r="X21" s="87">
+        <f>W21+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B22" s="86">
+        <f>H21+1</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="86">
+        <f>B22+1</f>
+        <v>7</v>
+      </c>
+      <c r="D22" s="86">
+        <f t="shared" ref="D22:H22" si="34">C22+1</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="86">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="F22" s="86">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="87">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="H22" s="87">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="86">
+        <f>P21+1</f>
+        <v>3</v>
+      </c>
+      <c r="K22" s="86">
+        <f>J22+1</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="86">
+        <f t="shared" ref="L22:P22" si="35">K22+1</f>
+        <v>5</v>
+      </c>
+      <c r="M22" s="86">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="N22" s="86">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="O22" s="87">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="87">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="R22" s="86">
+        <f>X21+1</f>
+        <v>7</v>
+      </c>
+      <c r="S22" s="86">
+        <f>R22+1</f>
+        <v>8</v>
+      </c>
+      <c r="T22" s="86">
+        <f t="shared" ref="T22:X22" si="36">S22+1</f>
+        <v>9</v>
+      </c>
+      <c r="U22" s="86">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="V22" s="86">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="W22" s="87">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="X22" s="87">
+        <f t="shared" si="36"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B23" s="86">
+        <f t="shared" ref="B23:B24" si="37">H22+1</f>
+        <v>13</v>
+      </c>
+      <c r="C23" s="86">
+        <f t="shared" ref="C23:H23" si="38">B23+1</f>
+        <v>14</v>
+      </c>
+      <c r="D23" s="86">
+        <f t="shared" si="38"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="86">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="86">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="87">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="H23" s="87">
+        <f t="shared" si="38"/>
+        <v>19</v>
+      </c>
+      <c r="J23" s="86">
+        <f t="shared" ref="J23:J26" si="39">P22+1</f>
+        <v>10</v>
+      </c>
+      <c r="K23" s="86">
+        <f t="shared" ref="K23:P23" si="40">J23+1</f>
+        <v>11</v>
+      </c>
+      <c r="L23" s="86">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="86">
+        <f t="shared" si="40"/>
+        <v>13</v>
+      </c>
+      <c r="N23" s="86">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="O23" s="87">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="P23" s="87">
+        <f t="shared" si="40"/>
+        <v>16</v>
+      </c>
+      <c r="R23" s="86">
+        <f t="shared" ref="R23:R25" si="41">X22+1</f>
+        <v>14</v>
+      </c>
+      <c r="S23" s="86">
+        <f t="shared" ref="S23:X23" si="42">R23+1</f>
+        <v>15</v>
+      </c>
+      <c r="T23" s="86">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="U23" s="86">
+        <f t="shared" si="42"/>
+        <v>17</v>
+      </c>
+      <c r="V23" s="86">
+        <f t="shared" si="42"/>
+        <v>18</v>
+      </c>
+      <c r="W23" s="87">
+        <f t="shared" si="42"/>
+        <v>19</v>
+      </c>
+      <c r="X23" s="87">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B24" s="86">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="86">
+        <f t="shared" ref="C24:H25" si="43">B24+1</f>
+        <v>21</v>
+      </c>
+      <c r="D24" s="86">
+        <f t="shared" si="43"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="86">
+        <f t="shared" si="43"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="86">
+        <f t="shared" si="43"/>
+        <v>24</v>
+      </c>
+      <c r="G24" s="87">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="H24" s="87">
+        <f t="shared" si="43"/>
+        <v>26</v>
+      </c>
+      <c r="J24" s="86">
+        <f t="shared" si="39"/>
+        <v>17</v>
+      </c>
+      <c r="K24" s="86">
+        <f t="shared" ref="K24:P24" si="44">J24+1</f>
+        <v>18</v>
+      </c>
+      <c r="L24" s="86">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="M24" s="86">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="86">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
+      <c r="O24" s="87">
+        <f t="shared" si="44"/>
+        <v>22</v>
+      </c>
+      <c r="P24" s="87">
+        <f t="shared" si="44"/>
+        <v>23</v>
+      </c>
+      <c r="R24" s="86">
+        <f t="shared" si="41"/>
+        <v>21</v>
+      </c>
+      <c r="S24" s="86">
+        <f t="shared" ref="S24:X24" si="45">R24+1</f>
+        <v>22</v>
+      </c>
+      <c r="T24" s="86">
+        <f t="shared" si="45"/>
+        <v>23</v>
+      </c>
+      <c r="U24" s="86">
+        <f t="shared" si="45"/>
+        <v>24</v>
+      </c>
+      <c r="V24" s="86">
+        <f t="shared" si="45"/>
+        <v>25</v>
+      </c>
+      <c r="W24" s="87">
+        <f t="shared" si="45"/>
+        <v>26</v>
+      </c>
+      <c r="X24" s="87">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B25" s="86">
+        <f t="shared" ref="B25" si="46">H24+1</f>
+        <v>27</v>
+      </c>
+      <c r="C25" s="86">
+        <f t="shared" si="43"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="86">
+        <f t="shared" si="43"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="86">
+        <f t="shared" si="43"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="86">
+        <f t="shared" si="43"/>
+        <v>31</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="J25" s="86">
+        <f t="shared" si="39"/>
+        <v>24</v>
+      </c>
+      <c r="K25" s="86">
+        <f t="shared" ref="K25:P25" si="47">J25+1</f>
+        <v>25</v>
+      </c>
+      <c r="L25" s="86">
+        <f t="shared" si="47"/>
+        <v>26</v>
+      </c>
+      <c r="M25" s="86">
+        <f t="shared" si="47"/>
+        <v>27</v>
+      </c>
+      <c r="N25" s="86">
+        <f t="shared" si="47"/>
+        <v>28</v>
+      </c>
+      <c r="O25" s="87">
+        <f t="shared" si="47"/>
+        <v>29</v>
+      </c>
+      <c r="P25" s="87">
+        <f t="shared" si="47"/>
+        <v>30</v>
+      </c>
+      <c r="R25" s="86">
+        <f t="shared" si="41"/>
+        <v>28</v>
+      </c>
+      <c r="S25" s="86">
+        <f t="shared" ref="S25:T25" si="48">R25+1</f>
+        <v>29</v>
+      </c>
+      <c r="T25" s="86">
+        <f t="shared" si="48"/>
+        <v>30</v>
+      </c>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+    </row>
+    <row r="26" spans="1:24" s="94" customFormat="1" ht="10" customHeight="1">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="J26" s="86">
+        <f t="shared" si="39"/>
+        <v>31</v>
+      </c>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+    </row>
+    <row r="27" spans="1:24" ht="10" customHeight="1"/>
+    <row r="28" spans="1:24" ht="10" customHeight="1">
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="84"/>
+    </row>
+    <row r="29" spans="1:24" ht="10" customHeight="1">
+      <c r="B29" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="86">
+        <v>1</v>
+      </c>
+      <c r="F30" s="86">
+        <v>2</v>
+      </c>
+      <c r="G30" s="87">
+        <v>3</v>
+      </c>
+      <c r="H30" s="87">
+        <v>4</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="87">
+        <v>1</v>
+      </c>
+      <c r="R30" s="89"/>
+      <c r="S30" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="86">
+        <f>S30+1</f>
+        <v>2</v>
+      </c>
+      <c r="U30" s="86">
+        <f t="shared" ref="U30:X30" si="49">T30+1</f>
+        <v>3</v>
+      </c>
+      <c r="V30" s="86">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="W30" s="87">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="X30" s="87">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B31" s="86">
+        <f>H30+1</f>
+        <v>5</v>
+      </c>
+      <c r="C31" s="86">
+        <f>B31+1</f>
+        <v>6</v>
+      </c>
+      <c r="D31" s="86">
+        <f t="shared" ref="D31:H31" si="50">C31+1</f>
+        <v>7</v>
+      </c>
+      <c r="E31" s="86">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="86">
+        <f t="shared" si="50"/>
+        <v>9</v>
+      </c>
+      <c r="G31" s="87">
+        <f t="shared" si="50"/>
+        <v>10</v>
+      </c>
+      <c r="H31" s="87">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="J31" s="86">
+        <f>P30+1</f>
+        <v>2</v>
+      </c>
+      <c r="K31" s="86">
+        <f>J31+1</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="86">
+        <f t="shared" ref="L31:P31" si="51">K31+1</f>
+        <v>4</v>
+      </c>
+      <c r="M31" s="86">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="86">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="O31" s="87">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="P31" s="87">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="R31" s="86">
+        <f>X30+1</f>
+        <v>7</v>
+      </c>
+      <c r="S31" s="86">
+        <f>R31+1</f>
+        <v>8</v>
+      </c>
+      <c r="T31" s="86">
+        <f t="shared" ref="T31:X31" si="52">S31+1</f>
+        <v>9</v>
+      </c>
+      <c r="U31" s="86">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="V31" s="86">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="W31" s="87">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="X31" s="87">
+        <f t="shared" si="52"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B32" s="86">
+        <f t="shared" ref="B32:B34" si="53">H31+1</f>
+        <v>12</v>
+      </c>
+      <c r="C32" s="86">
+        <f t="shared" ref="C32:H32" si="54">B32+1</f>
+        <v>13</v>
+      </c>
+      <c r="D32" s="86">
+        <f t="shared" si="54"/>
+        <v>14</v>
+      </c>
+      <c r="E32" s="86">
+        <f t="shared" si="54"/>
+        <v>15</v>
+      </c>
+      <c r="F32" s="86">
+        <f t="shared" si="54"/>
+        <v>16</v>
+      </c>
+      <c r="G32" s="87">
+        <f t="shared" si="54"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="87">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="J32" s="86">
+        <f t="shared" ref="J32:J35" si="55">P31+1</f>
+        <v>9</v>
+      </c>
+      <c r="K32" s="86">
+        <f t="shared" ref="K32:P32" si="56">J32+1</f>
+        <v>10</v>
+      </c>
+      <c r="L32" s="86">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="M32" s="86">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+      <c r="N32" s="86">
+        <f t="shared" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="O32" s="87">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="P32" s="87">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="R32" s="86">
+        <f t="shared" ref="R32:R34" si="57">X31+1</f>
+        <v>14</v>
+      </c>
+      <c r="S32" s="86">
+        <f t="shared" ref="S32:X32" si="58">R32+1</f>
+        <v>15</v>
+      </c>
+      <c r="T32" s="86">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="U32" s="86">
+        <f t="shared" si="58"/>
+        <v>17</v>
+      </c>
+      <c r="V32" s="86">
+        <f t="shared" si="58"/>
+        <v>18</v>
+      </c>
+      <c r="W32" s="87">
+        <f t="shared" si="58"/>
+        <v>19</v>
+      </c>
+      <c r="X32" s="87">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B33" s="86">
+        <f t="shared" si="53"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="86">
+        <f t="shared" ref="C33:H33" si="59">B33+1</f>
+        <v>20</v>
+      </c>
+      <c r="D33" s="86">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="E33" s="86">
+        <f t="shared" si="59"/>
+        <v>22</v>
+      </c>
+      <c r="F33" s="86">
+        <f t="shared" si="59"/>
+        <v>23</v>
+      </c>
+      <c r="G33" s="87">
+        <f t="shared" si="59"/>
+        <v>24</v>
+      </c>
+      <c r="H33" s="87">
+        <f t="shared" si="59"/>
+        <v>25</v>
+      </c>
+      <c r="J33" s="86">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="K33" s="86">
+        <f t="shared" ref="K33:P33" si="60">J33+1</f>
+        <v>17</v>
+      </c>
+      <c r="L33" s="86">
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="M33" s="86">
+        <f t="shared" si="60"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="86">
+        <f t="shared" si="60"/>
+        <v>20</v>
+      </c>
+      <c r="O33" s="87">
+        <f t="shared" si="60"/>
+        <v>21</v>
+      </c>
+      <c r="P33" s="87">
+        <f t="shared" si="60"/>
+        <v>22</v>
+      </c>
+      <c r="R33" s="86">
+        <f t="shared" si="57"/>
+        <v>21</v>
+      </c>
+      <c r="S33" s="86">
+        <f t="shared" ref="S33:X33" si="61">R33+1</f>
+        <v>22</v>
+      </c>
+      <c r="T33" s="86">
+        <f t="shared" si="61"/>
+        <v>23</v>
+      </c>
+      <c r="U33" s="86">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="V33" s="86">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="W33" s="87">
+        <f t="shared" si="61"/>
+        <v>26</v>
+      </c>
+      <c r="X33" s="87">
+        <f t="shared" si="61"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B34" s="86">
+        <f t="shared" si="53"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="86">
+        <f t="shared" ref="C34:G34" si="62">B34+1</f>
+        <v>27</v>
+      </c>
+      <c r="D34" s="86">
+        <f t="shared" si="62"/>
+        <v>28</v>
+      </c>
+      <c r="E34" s="86">
+        <f t="shared" si="62"/>
+        <v>29</v>
+      </c>
+      <c r="F34" s="86">
+        <f t="shared" si="62"/>
+        <v>30</v>
+      </c>
+      <c r="G34" s="87">
+        <f t="shared" si="62"/>
+        <v>31</v>
+      </c>
+      <c r="H34" s="89"/>
+      <c r="J34" s="86">
+        <f t="shared" si="55"/>
+        <v>23</v>
+      </c>
+      <c r="K34" s="86">
+        <f t="shared" ref="K34:P34" si="63">J34+1</f>
+        <v>24</v>
+      </c>
+      <c r="L34" s="86">
+        <f t="shared" si="63"/>
+        <v>25</v>
+      </c>
+      <c r="M34" s="86">
+        <f t="shared" si="63"/>
+        <v>26</v>
+      </c>
+      <c r="N34" s="86">
+        <f t="shared" si="63"/>
+        <v>27</v>
+      </c>
+      <c r="O34" s="87">
+        <f t="shared" si="63"/>
+        <v>28</v>
+      </c>
+      <c r="P34" s="87">
+        <f t="shared" si="63"/>
+        <v>29</v>
+      </c>
+      <c r="R34" s="86">
+        <f t="shared" si="57"/>
+        <v>28</v>
+      </c>
+      <c r="S34" s="86">
+        <f t="shared" ref="S34:U34" si="64">R34+1</f>
+        <v>29</v>
+      </c>
+      <c r="T34" s="86">
+        <f t="shared" si="64"/>
+        <v>30</v>
+      </c>
+      <c r="U34" s="86">
+        <f t="shared" si="64"/>
+        <v>31</v>
+      </c>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+    </row>
+    <row r="35" spans="2:24" s="88" customFormat="1" ht="10" customHeight="1">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="J35" s="86">
+        <f t="shared" si="55"/>
+        <v>30</v>
+      </c>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+    </row>
+    <row r="36" spans="2:24" ht="10" customHeight="1"/>
+    <row r="37" spans="2:24" ht="7.3" hidden="1" customHeight="1"/>
+    <row r="38" spans="2:24" ht="7.3" hidden="1" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8379,6 +9697,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.69140625" customWidth="1"/>
+    <col min="2" max="2" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.69140625" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="10" customHeight="1">
+      <c r="A1" s="115"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="122"/>
+      <c r="B2" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="122"/>
+      <c r="B3" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="117"/>
+    </row>
+    <row r="4" spans="1:5" ht="10" customHeight="1">
+      <c r="A4" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1"/>
@@ -8398,206 +9775,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
-    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="1.69140625" style="56" customWidth="1"/>
-    <col min="10" max="25" width="0" style="56" hidden="1"/>
-    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="10" customHeight="1"/>
-    <row r="2" spans="2:8" ht="14.6">
-      <c r="B2" s="62"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.6">
-      <c r="B3" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="83">
-        <v>1</v>
-      </c>
-      <c r="H4" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B5" s="68">
-        <f>H4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="68">
-        <f>B5+1</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="68">
-        <f t="shared" ref="D5:H5" si="0">C5+1</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F5" s="68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G5" s="73">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="73">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B6" s="68">
-        <f t="shared" ref="B6:B8" si="1">H5+1</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="68">
-        <f t="shared" ref="C6:H8" si="2">B6+1</f>
-        <v>11</v>
-      </c>
-      <c r="D6" s="68">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E6" s="68">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F6" s="68">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="G6" s="73">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H6" s="73">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B7" s="68">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C7" s="82">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D7" s="68">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E7" s="68">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="68">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G7" s="73">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H7" s="73">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B8" s="68">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C8" s="68">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D8" s="68">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E8" s="68">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F8" s="68">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G8" s="73">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H8" s="71"/>
-    </row>
-    <row r="9" spans="2:8" ht="10" customHeight="1">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y9"/>
@@ -8611,7 +9788,7 @@
     <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
     <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
     <col min="9" max="9" width="1.69140625" style="56" customWidth="1"/>
-    <col min="10" max="25" width="0" style="56" hidden="1"/>
+    <col min="10" max="25" width="0" style="56" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
   </cols>
   <sheetData>
@@ -8619,34 +9796,34 @@
     <row r="2" spans="2:8" ht="14.6">
       <c r="B2" s="62"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.6">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="77" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8656,7 +9833,7 @@
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
-      <c r="G4" s="73">
+      <c r="G4" s="75">
         <v>1</v>
       </c>
       <c r="H4" s="73">
@@ -8664,7 +9841,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B5" s="83">
+      <c r="B5" s="68">
         <f>H4+1</f>
         <v>3</v>
       </c>
@@ -8728,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="74">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -8811,7 +9988,7 @@
     <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
     <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
     <col min="9" max="9" width="1.69140625" style="56" customWidth="1"/>
-    <col min="10" max="25" width="0" style="56" hidden="1"/>
+    <col min="10" max="25" width="0" style="56" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
   </cols>
   <sheetData>
@@ -8819,34 +9996,34 @@
     <row r="2" spans="2:8" ht="14.6">
       <c r="B2" s="62"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.6">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="77" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8864,7 +10041,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" s="67" customFormat="1" ht="14.6">
-      <c r="B5" s="68">
+      <c r="B5" s="75">
         <f>H4+1</f>
         <v>3</v>
       </c>
@@ -8928,7 +10105,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="74">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -8974,7 +10151,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="73">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -9011,7 +10188,7 @@
     <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
     <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
     <col min="9" max="9" width="1.69140625" style="56" customWidth="1"/>
-    <col min="10" max="25" width="0" style="56" hidden="1"/>
+    <col min="10" max="25" width="0" style="56" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
   </cols>
   <sheetData>
@@ -9019,34 +10196,34 @@
     <row r="2" spans="2:8" ht="14.6">
       <c r="B2" s="62"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="65"/>
       <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="14.6">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="77" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9128,7 +10305,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="74">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -9170,11 +10347,11 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="68">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="75">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -9199,6 +10376,206 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
+    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="1.69140625" style="56" customWidth="1"/>
+    <col min="10" max="25" width="0" style="56" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="10" customHeight="1"/>
+    <row r="2" spans="2:8" ht="14.6">
+      <c r="B2" s="62"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.6">
+      <c r="B3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="67" customFormat="1" ht="14.6">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="73">
+        <v>1</v>
+      </c>
+      <c r="H4" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="67" customFormat="1" ht="14.6">
+      <c r="B5" s="68">
+        <f>H4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="68">
+        <f>B5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="68">
+        <f t="shared" ref="D5:H5" si="0">C5+1</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="73">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="73">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="67" customFormat="1" ht="14.6">
+      <c r="B6" s="68">
+        <f t="shared" ref="B6:B8" si="1">H5+1</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="68">
+        <f t="shared" ref="C6:H8" si="2">B6+1</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="68">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="68">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="73">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="67" customFormat="1" ht="14.6">
+      <c r="B7" s="68">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="74">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="68">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="73">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="67" customFormat="1" ht="14.6">
+      <c r="B8" s="68">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="68">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="68">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="68">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G8" s="73">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="2:8" ht="10" customHeight="1">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1"/>
@@ -9216,1043 +10593,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="1.69140625" style="56" customWidth="1"/>
-    <col min="2" max="8" width="6.69140625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="2.69140625" style="56" customWidth="1"/>
-    <col min="10" max="16" width="6.69140625" style="56" customWidth="1"/>
-    <col min="17" max="17" width="2.69140625" style="56" customWidth="1"/>
-    <col min="18" max="24" width="6.69140625" style="56" customWidth="1"/>
-    <col min="25" max="25" width="1.69140625" style="56" customWidth="1"/>
-    <col min="26" max="16384" width="9.23046875" style="56" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="10" customHeight="1"/>
-    <row r="2" spans="2:24" ht="14.6">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="66"/>
-    </row>
-    <row r="3" spans="2:24" ht="14.6">
-      <c r="B3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="68">
-        <v>1</v>
-      </c>
-      <c r="E4" s="68">
-        <f>D4+1</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="68">
-        <f>E4+1</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="73">
-        <f>F4+1</f>
-        <v>4</v>
-      </c>
-      <c r="H4" s="73">
-        <f>G4+1</f>
-        <v>5</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="83">
-        <v>1</v>
-      </c>
-      <c r="P4" s="73">
-        <v>2</v>
-      </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B5" s="68">
-        <f>H4+1</f>
-        <v>6</v>
-      </c>
-      <c r="C5" s="68">
-        <f>B5+1</f>
-        <v>7</v>
-      </c>
-      <c r="D5" s="68">
-        <f t="shared" ref="D5:H5" si="0">C5+1</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F5" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="73">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H5" s="73">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J5" s="68">
-        <f>P4+1</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="68">
-        <f>J5+1</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="68">
-        <f t="shared" ref="L5:P5" si="1">K5+1</f>
-        <v>5</v>
-      </c>
-      <c r="M5" s="68">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N5" s="68">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O5" s="73">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P5" s="73">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R5" s="68">
-        <f>X4+1</f>
-        <v>2</v>
-      </c>
-      <c r="S5" s="68">
-        <f>R5+1</f>
-        <v>3</v>
-      </c>
-      <c r="T5" s="68">
-        <f t="shared" ref="T5:X5" si="2">S5+1</f>
-        <v>4</v>
-      </c>
-      <c r="U5" s="68">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="V5" s="68">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W5" s="73">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="X5" s="73">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B6" s="68">
-        <f t="shared" ref="B6:B8" si="3">H5+1</f>
-        <v>13</v>
-      </c>
-      <c r="C6" s="82">
-        <f t="shared" ref="C6:H8" si="4">B6+1</f>
-        <v>14</v>
-      </c>
-      <c r="D6" s="68">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="E6" s="68">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F6" s="68">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="G6" s="73">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="H6" s="73">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J6" s="68">
-        <f t="shared" ref="J6:J8" si="5">P5+1</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="68">
-        <f t="shared" ref="K6:P8" si="6">J6+1</f>
-        <v>11</v>
-      </c>
-      <c r="L6" s="68">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="M6" s="68">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="N6" s="68">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="O6" s="73">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P6" s="73">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="R6" s="68">
-        <f t="shared" ref="R6:R9" si="7">X5+1</f>
-        <v>9</v>
-      </c>
-      <c r="S6" s="68">
-        <f t="shared" ref="S6:X9" si="8">R6+1</f>
-        <v>10</v>
-      </c>
-      <c r="T6" s="68">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="U6" s="68">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="V6" s="68">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="W6" s="73">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="X6" s="73">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B7" s="68">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C7" s="68">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="68">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="E7" s="68">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="F7" s="68">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="G7" s="73">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H7" s="73">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J7" s="68">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="K7" s="68">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="L7" s="68">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="M7" s="68">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="N7" s="68">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="O7" s="73">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="P7" s="73">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="R7" s="68">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="S7" s="68">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="T7" s="68">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="U7" s="68">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="V7" s="68">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="W7" s="73">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="X7" s="73">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" s="67" customFormat="1" ht="14.6">
-      <c r="B8" s="68">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C8" s="68">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="D8" s="68">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="E8" s="68">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="68">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="J8" s="68">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K8" s="68">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="L8" s="68">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="M8" s="68">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="N8" s="68">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O8" s="73">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="P8" s="71"/>
-      <c r="R8" s="68">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="S8" s="68">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="T8" s="68">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="U8" s="68">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="V8" s="68">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="W8" s="73">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="X8" s="73">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="14.6">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="R9" s="69">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="S9" s="69">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-    </row>
-    <row r="10" spans="2:24" ht="14.6"/>
-    <row r="11" spans="2:24" ht="14.6">
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-    </row>
-    <row r="12" spans="2:24" ht="14.6">
-      <c r="B12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="83">
-        <v>1</v>
-      </c>
-      <c r="E13" s="68">
-        <f>D13+1</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="68">
-        <f t="shared" ref="F13:H13" si="9">E13+1</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="73">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="73">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="83">
-        <v>1</v>
-      </c>
-      <c r="O13" s="73">
-        <f>N13+1</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="73">
-        <f>O13+1</f>
-        <v>3</v>
-      </c>
-      <c r="R13" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="68">
-        <f>R13+1</f>
-        <v>2</v>
-      </c>
-      <c r="T13" s="68">
-        <f>S13+1</f>
-        <v>3</v>
-      </c>
-      <c r="U13" s="68">
-        <f t="shared" ref="U13:X13" si="10">T13+1</f>
-        <v>4</v>
-      </c>
-      <c r="V13" s="68">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="W13" s="73">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="X13" s="73">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B14" s="68">
-        <f>H13+1</f>
-        <v>6</v>
-      </c>
-      <c r="C14" s="68">
-        <f>B14+1</f>
-        <v>7</v>
-      </c>
-      <c r="D14" s="68">
-        <f t="shared" ref="D14:H14" si="11">C14+1</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="68">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="F14" s="68">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="73">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="73">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="J14" s="68">
-        <f>P13+1</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="68">
-        <f>J14+1</f>
-        <v>5</v>
-      </c>
-      <c r="L14" s="68">
-        <f t="shared" ref="L14:P14" si="12">K14+1</f>
-        <v>6</v>
-      </c>
-      <c r="M14" s="68">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N14" s="68">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="O14" s="73">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="73">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="68">
-        <f>X13+1</f>
-        <v>8</v>
-      </c>
-      <c r="S14" s="68">
-        <f>R14+1</f>
-        <v>9</v>
-      </c>
-      <c r="T14" s="68">
-        <f t="shared" ref="T14:X14" si="13">S14+1</f>
-        <v>10</v>
-      </c>
-      <c r="U14" s="68">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="V14" s="68">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="W14" s="73">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="X14" s="73">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B15" s="68">
-        <f t="shared" ref="B15:B17" si="14">H14+1</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="68">
-        <f t="shared" ref="C15:H17" si="15">B15+1</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="68">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="E15" s="68">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="F15" s="68">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="73">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="H15" s="73">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="J15" s="68">
-        <f t="shared" ref="J15:J17" si="16">P14+1</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="68">
-        <f t="shared" ref="K15:P17" si="17">J15+1</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="68">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="M15" s="68">
-        <f t="shared" si="17"/>
-        <v>14</v>
-      </c>
-      <c r="N15" s="68">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="O15" s="73">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="P15" s="73">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="R15" s="68">
-        <f t="shared" ref="R15:R17" si="18">X14+1</f>
-        <v>15</v>
-      </c>
-      <c r="S15" s="68">
-        <f t="shared" ref="S15:X17" si="19">R15+1</f>
-        <v>16</v>
-      </c>
-      <c r="T15" s="68">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="U15" s="68">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="V15" s="68">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="W15" s="73">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="X15" s="73">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B16" s="68">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="C16" s="68">
-        <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="D16" s="68">
-        <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="E16" s="68">
-        <f t="shared" si="15"/>
-        <v>23</v>
-      </c>
-      <c r="F16" s="68">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="G16" s="73">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="H16" s="73">
-        <f t="shared" si="15"/>
-        <v>26</v>
-      </c>
-      <c r="J16" s="68">
-        <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="68">
-        <f t="shared" si="17"/>
-        <v>19</v>
-      </c>
-      <c r="L16" s="68">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="M16" s="68">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="N16" s="68">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="O16" s="73">
-        <f t="shared" si="17"/>
-        <v>23</v>
-      </c>
-      <c r="P16" s="73">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="R16" s="68">
-        <f t="shared" si="18"/>
-        <v>22</v>
-      </c>
-      <c r="S16" s="82">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="T16" s="68">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="U16" s="68">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="V16" s="68">
-        <f t="shared" si="19"/>
-        <v>26</v>
-      </c>
-      <c r="W16" s="73">
-        <f t="shared" si="19"/>
-        <v>27</v>
-      </c>
-      <c r="X16" s="73">
-        <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" s="57" customFormat="1" ht="14.6">
-      <c r="B17" s="68">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="C17" s="68">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="D17" s="68">
-        <f t="shared" si="15"/>
-        <v>29</v>
-      </c>
-      <c r="E17" s="68">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="J17" s="68">
-        <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="K17" s="68">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="L17" s="68">
-        <f t="shared" si="17"/>
-        <v>27</v>
-      </c>
-      <c r="M17" s="68">
-        <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-      <c r="N17" s="68">
-        <f t="shared" si="17"/>
-        <v>29</v>
-      </c>
-      <c r="O17" s="73">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="P17" s="73">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="R17" s="68">
-        <f t="shared" si="18"/>
-        <v>29</v>
-      </c>
-      <c r="S17" s="68">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-    </row>
-    <row r="18" spans="2:24" ht="10" customHeight="1">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>